--- a/data/houses.xlsx
+++ b/data/houses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban08/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban15/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F894F08-F827-2242-91FF-9A135188F94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6091F5F0-0005-7B4F-BBA4-9FAD185BBB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="500" windowWidth="26740" windowHeight="17500" xr2:uid="{33D194D6-A429-7949-A97B-0894189945E2}"/>
   </bookViews>
@@ -6217,10 +6217,10 @@
   <dimension ref="A1:CL75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="BZ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="CB28" sqref="CB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6286,7 +6286,8 @@
     <col min="70" max="70" width="16.1640625" style="9" customWidth="1"/>
     <col min="71" max="76" width="8.83203125" style="9"/>
     <col min="77" max="80" width="8.83203125" style="35"/>
-    <col min="81" max="84" width="8.83203125" style="15"/>
+    <col min="81" max="83" width="8.83203125" style="15"/>
+    <col min="84" max="84" width="15.83203125" style="15" customWidth="1"/>
     <col min="85" max="85" width="36.5" style="9" customWidth="1"/>
     <col min="86" max="86" width="18.5" style="9" customWidth="1"/>
     <col min="87" max="16384" width="8.83203125" style="9"/>
@@ -6984,6 +6985,9 @@
       <c r="CA3" s="35">
         <v>17</v>
       </c>
+      <c r="CB3" s="35">
+        <v>13</v>
+      </c>
       <c r="CC3" s="15">
         <v>38.200000000000003</v>
       </c>
@@ -6992,6 +6996,9 @@
       </c>
       <c r="CE3" s="15">
         <v>42.1</v>
+      </c>
+      <c r="CF3" s="15">
+        <v>43</v>
       </c>
       <c r="CG3" s="30" t="s">
         <v>1197</v>
@@ -7193,6 +7200,9 @@
       <c r="CA4" s="35">
         <v>85</v>
       </c>
+      <c r="CB4" s="35">
+        <v>35</v>
+      </c>
       <c r="CC4" s="15">
         <v>33.799999999999997</v>
       </c>
@@ -7201,6 +7211,9 @@
       </c>
       <c r="CE4" s="15">
         <v>35.200000000000003</v>
+      </c>
+      <c r="CF4" s="15">
+        <v>35.5</v>
       </c>
       <c r="CG4" s="30" t="s">
         <v>1181</v>
@@ -7400,6 +7413,9 @@
       <c r="CA5" s="35">
         <v>57</v>
       </c>
+      <c r="CB5" s="35">
+        <v>32</v>
+      </c>
       <c r="CC5" s="15">
         <v>34.799999999999997</v>
       </c>
@@ -7408,6 +7424,9 @@
       </c>
       <c r="CE5" s="15">
         <v>35.700000000000003</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>36.4</v>
       </c>
       <c r="CG5" s="30" t="s">
         <v>1183</v>
@@ -7597,6 +7616,9 @@
       <c r="CA6" s="35">
         <v>17</v>
       </c>
+      <c r="CB6" s="35">
+        <v>8</v>
+      </c>
       <c r="CC6" s="15">
         <v>38</v>
       </c>
@@ -7605,6 +7627,9 @@
       </c>
       <c r="CE6" s="15">
         <v>38</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>37.799999999999997</v>
       </c>
       <c r="CG6" s="30" t="s">
         <v>1172</v>
@@ -7768,8 +7793,14 @@
       <c r="CA7" s="35">
         <v>3</v>
       </c>
+      <c r="CB7" s="35">
+        <v>58</v>
+      </c>
       <c r="CE7" s="15">
         <v>45.2</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>45.1</v>
       </c>
       <c r="CG7" s="33"/>
       <c r="CH7" s="30"/>
@@ -7999,6 +8030,9 @@
       <c r="CA8" s="35">
         <v>35</v>
       </c>
+      <c r="CB8" s="35">
+        <v>37</v>
+      </c>
       <c r="CC8" s="15">
         <v>40.299999999999997</v>
       </c>
@@ -8007,6 +8041,9 @@
       </c>
       <c r="CE8" s="15">
         <v>40.299999999999997</v>
+      </c>
+      <c r="CF8" s="15">
+        <v>40.9</v>
       </c>
       <c r="CG8" s="30" t="s">
         <v>1178</v>
@@ -8431,8 +8468,14 @@
       <c r="CA10" s="35">
         <v>4</v>
       </c>
+      <c r="CB10" s="35">
+        <v>106</v>
+      </c>
       <c r="CE10" s="15">
         <v>37.5</v>
+      </c>
+      <c r="CF10" s="15">
+        <v>37.6</v>
       </c>
       <c r="CG10" s="33"/>
       <c r="CH10" s="30"/>
@@ -9148,6 +9191,9 @@
       <c r="CA13" s="35">
         <v>43</v>
       </c>
+      <c r="CB13" s="35">
+        <v>14</v>
+      </c>
       <c r="CC13" s="15">
         <v>41.5</v>
       </c>
@@ -9156,6 +9202,9 @@
       </c>
       <c r="CE13" s="15">
         <v>42.1</v>
+      </c>
+      <c r="CF13" s="15">
+        <v>43</v>
       </c>
       <c r="CG13" s="30" t="s">
         <v>1190</v>
@@ -9357,6 +9406,9 @@
       <c r="CA14" s="35">
         <v>20</v>
       </c>
+      <c r="CB14" s="35">
+        <v>8</v>
+      </c>
       <c r="CC14" s="15">
         <v>36.9</v>
       </c>
@@ -9365,6 +9417,9 @@
       </c>
       <c r="CE14" s="15">
         <v>37.9</v>
+      </c>
+      <c r="CF14" s="15">
+        <v>37.700000000000003</v>
       </c>
       <c r="CG14" s="30" t="s">
         <v>1186</v>
@@ -9566,6 +9621,9 @@
       <c r="CA15" s="35">
         <v>45</v>
       </c>
+      <c r="CB15" s="35">
+        <v>14</v>
+      </c>
       <c r="CC15" s="15">
         <v>38</v>
       </c>
@@ -9574,6 +9632,9 @@
       </c>
       <c r="CE15" s="15">
         <v>39.299999999999997</v>
+      </c>
+      <c r="CF15" s="15">
+        <v>37.700000000000003</v>
       </c>
       <c r="CG15" s="30" t="s">
         <v>1198</v>
@@ -9781,6 +9842,9 @@
       <c r="CA16" s="35">
         <v>80</v>
       </c>
+      <c r="CB16" s="35">
+        <v>90</v>
+      </c>
       <c r="CC16" s="15">
         <v>38.799999999999997</v>
       </c>
@@ -9789,6 +9853,9 @@
       </c>
       <c r="CE16" s="15">
         <v>42</v>
+      </c>
+      <c r="CF16" s="15">
+        <v>42.5</v>
       </c>
       <c r="CG16" s="30" t="s">
         <v>1202</v>
@@ -10176,6 +10243,9 @@
       <c r="CA18" s="35">
         <v>35</v>
       </c>
+      <c r="CB18" s="35">
+        <v>22</v>
+      </c>
       <c r="CC18" s="15">
         <v>43.4</v>
       </c>
@@ -10184,6 +10254,9 @@
       </c>
       <c r="CE18" s="15">
         <v>41.6</v>
+      </c>
+      <c r="CF18" s="15">
+        <v>42.1</v>
       </c>
       <c r="CG18" s="30" t="s">
         <v>1204</v>
@@ -10365,8 +10438,14 @@
       <c r="CA19" s="35">
         <v>77</v>
       </c>
+      <c r="CB19" s="35">
+        <v>27</v>
+      </c>
       <c r="CE19" s="15">
         <v>36.6</v>
+      </c>
+      <c r="CF19" s="15">
+        <v>37.4</v>
       </c>
       <c r="CG19" s="30"/>
       <c r="CH19" s="30"/>
@@ -10545,8 +10624,14 @@
       <c r="CA20" s="35">
         <v>15</v>
       </c>
+      <c r="CB20" s="35">
+        <v>10</v>
+      </c>
       <c r="CE20" s="15">
         <v>37.200000000000003</v>
+      </c>
+      <c r="CF20" s="15">
+        <v>38.299999999999997</v>
       </c>
       <c r="CG20" s="33" t="s">
         <v>1385</v>
@@ -10741,6 +10826,9 @@
       <c r="CA21" s="35">
         <v>27</v>
       </c>
+      <c r="CB21" s="35">
+        <v>14</v>
+      </c>
       <c r="CC21" s="15">
         <v>34.4</v>
       </c>
@@ -10749,6 +10837,9 @@
       </c>
       <c r="CE21" s="15">
         <v>35.799999999999997</v>
+      </c>
+      <c r="CF21" s="15">
+        <v>36.299999999999997</v>
       </c>
       <c r="CG21" s="30" t="s">
         <v>1174</v>
@@ -10990,6 +11081,9 @@
       <c r="CA22" s="35">
         <v>14</v>
       </c>
+      <c r="CB22" s="35">
+        <v>5</v>
+      </c>
       <c r="CC22" s="15">
         <v>44.8</v>
       </c>
@@ -10997,6 +11091,9 @@
         <v>45.5</v>
       </c>
       <c r="CE22" s="15">
+        <v>45.8</v>
+      </c>
+      <c r="CF22" s="15">
         <v>45.8</v>
       </c>
       <c r="CG22" s="30" t="s">
@@ -11399,11 +11496,17 @@
       <c r="CA24" s="35">
         <v>69</v>
       </c>
+      <c r="CB24" s="35">
+        <v>29</v>
+      </c>
       <c r="CD24" s="15">
         <v>34.200000000000003</v>
       </c>
       <c r="CE24" s="15">
         <v>34.799999999999997</v>
+      </c>
+      <c r="CF24" s="15">
+        <v>35.5</v>
       </c>
       <c r="CG24" s="30" t="s">
         <v>1184</v>
@@ -11608,8 +11711,14 @@
       <c r="CA25" s="35">
         <v>249</v>
       </c>
+      <c r="CB25" s="35">
+        <v>127</v>
+      </c>
       <c r="CE25" s="15">
         <v>39.6</v>
+      </c>
+      <c r="CF25" s="15">
+        <v>40.1</v>
       </c>
       <c r="CG25" s="33" t="s">
         <v>1347</v>
@@ -11807,6 +11916,9 @@
       <c r="CA26" s="35">
         <v>7</v>
       </c>
+      <c r="CB26" s="35">
+        <v>8</v>
+      </c>
       <c r="CC26" s="15">
         <v>35.700000000000003</v>
       </c>
@@ -11815,6 +11927,9 @@
       </c>
       <c r="CE26" s="15">
         <v>36.1</v>
+      </c>
+      <c r="CF26" s="15">
+        <v>35</v>
       </c>
       <c r="CG26" s="30" t="s">
         <v>1188</v>
@@ -11871,8 +11986,14 @@
       <c r="CA27" s="35">
         <v>89</v>
       </c>
+      <c r="CB27" s="35">
+        <v>202</v>
+      </c>
       <c r="CE27" s="15">
         <v>39.9</v>
+      </c>
+      <c r="CF27" s="15">
+        <v>41.1</v>
       </c>
       <c r="CG27" s="33"/>
       <c r="CH27" s="30"/>
@@ -11900,6 +12021,9 @@
       <c r="CE28" s="15">
         <v>38.700000000000003</v>
       </c>
+      <c r="CF28" s="15">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:90">
       <c r="A29" s="9">
@@ -11919,6 +12043,9 @@
       </c>
       <c r="CE29" s="35">
         <v>1237</v>
+      </c>
+      <c r="CF29" s="15">
+        <v>1266</v>
       </c>
     </row>
     <row r="30" spans="1:90">
@@ -21093,9 +21220,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CL76">
-    <sortCondition ref="BW2:BW76"/>
-    <sortCondition ref="B2:B76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CL75">
+    <sortCondition ref="BW2:BW75"/>
+    <sortCondition ref="B2:B75"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
